--- a/22-LinguagemDeProgramacao/08-CodigosDaMateria/0_0_Modelos/dados.xlsx
+++ b/22-LinguagemDeProgramacao/08-CodigosDaMateria/0_0_Modelos/dados.xlsx
@@ -421,10 +421,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Boa noite</v>
+        <v>Ezequiel</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve">/accept?code=EBUVPFe54fS4dI4yRPwUeZ </v>
+        <v>67982139429</v>
       </c>
       <c r="C2" t="str">
         <v>11/2021</v>
